--- a/workflow.xlsx
+++ b/workflow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jason/Dropbox/ELA/prog/codebase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5654784-F76E-C543-B02E-EB595361B36C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0AB39B-AEC0-3843-9898-35304F5D1522}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="21040" windowHeight="20140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1897,8 +1897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IR45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.15"/>
